--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\JUnitSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C776E72-E0E0-4521-85BD-A52467CCF36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E886F57-F61A-4CCD-9F88-0BC93F3E1DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E18EC6B-FDBD-4BC9-8C75-E793536EC325}"/>
   </bookViews>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5A45AB-368D-4632-94EE-DA3570CAF8F9}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,6 +439,23 @@
         <v>53</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>63</v>
+      </c>
+      <c r="C4">
+        <v>62</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
